--- a/蓝巩膜.xlsx
+++ b/蓝巩膜.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28620" windowHeight="11625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
   <si>
     <t>基因</t>
   </si>
@@ -230,6 +230,72 @@
   </si>
   <si>
     <t>FKBP14</t>
+  </si>
+  <si>
+    <t>COL1A1</t>
+  </si>
+  <si>
+    <t>GJA1</t>
+  </si>
+  <si>
+    <t>CHST3</t>
+  </si>
+  <si>
+    <t>ENPP1</t>
+  </si>
+  <si>
+    <t>FZD2</t>
+  </si>
+  <si>
+    <t>RAP1B</t>
+  </si>
+  <si>
+    <t>RAP1A</t>
+  </si>
+  <si>
+    <t>NXN</t>
+  </si>
+  <si>
+    <t>FBN1</t>
+  </si>
+  <si>
+    <t>KIAA1279</t>
+  </si>
+  <si>
+    <t>TGFB2</t>
+  </si>
+  <si>
+    <t>SMAD3</t>
+  </si>
+  <si>
+    <t>LEPRE1</t>
+  </si>
+  <si>
+    <t>RSS</t>
+  </si>
+  <si>
+    <t>CSH1</t>
+  </si>
+  <si>
+    <t>GH2</t>
+  </si>
+  <si>
+    <t>FOXP2</t>
+  </si>
+  <si>
+    <t>FAM111A</t>
+  </si>
+  <si>
+    <t>PIEZO2</t>
+  </si>
+  <si>
+    <t>EDS8</t>
+  </si>
+  <si>
+    <t>SPP1</t>
+  </si>
+  <si>
+    <t>STAT6</t>
   </si>
 </sst>
 </file>
@@ -239,8 +305,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -261,6 +327,104 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,6 +437,29 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -281,128 +468,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,24 +495,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -459,61 +591,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,79 +663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,15 +674,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -631,54 +688,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,6 +709,54 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -708,18 +765,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -728,141 +794,144 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -929,7 +998,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="585858"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1182,10 +1251,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A71"/>
+  <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1548,6 +1617,116 @@
         <v>70</v>
       </c>
     </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
